--- a/crowd_certain/outputs/weight_strength_relation/kr-vs-kp/weight_strength_relation.xlsx
+++ b/crowd_certain/outputs/weight_strength_relation/kr-vs-kp/weight_strength_relation.xlsx
@@ -476,10 +476,10 @@
         <v>0.3881064162754304</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9655991566740064</v>
+        <v>0.9655210807261927</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2063868735844748</v>
+        <v>0.2064297917551973</v>
       </c>
       <c r="F2" t="n">
         <v>0.9993550604285427</v>
@@ -496,10 +496,10 @@
         <v>0.4804381846635368</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9366807115592268</v>
+        <v>0.9366049738850084</v>
       </c>
       <c r="E3" t="n">
-        <v>0.14399664138479</v>
+        <v>0.1440265855005717</v>
       </c>
       <c r="F3" t="n">
         <v>0.9988807521268217</v>
@@ -516,10 +516,10 @@
         <v>0.486697965571205</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9172529329668211</v>
+        <v>0.9187959164645279</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3156666930687693</v>
+        <v>0.3115733340156809</v>
       </c>
       <c r="F4" t="n">
         <v>0.9997584257634172</v>
@@ -536,10 +536,10 @@
         <v>0.4913928012519562</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8184027562075125</v>
+        <v>0.8183365821947841</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4737389486172739</v>
+        <v>0.4738374626783745</v>
       </c>
       <c r="F5" t="n">
         <v>0.9998759421617109</v>
@@ -556,10 +556,10 @@
         <v>0.513302034428795</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8478356599563239</v>
+        <v>0.8477671060721538</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5050898716449699</v>
+        <v>0.505194905133607</v>
       </c>
       <c r="F6" t="n">
         <v>0.9999167846572932</v>
@@ -576,10 +576,10 @@
         <v>0.5273865414710485</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9021829342310996</v>
+        <v>0.9021099859614118</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8018644111479299</v>
+        <v>0.8020311589313343</v>
       </c>
       <c r="F7" t="n">
         <v>0.9991977980907047</v>
@@ -596,10 +596,10 @@
         <v>0.539906103286385</v>
       </c>
       <c r="D8" t="n">
-        <v>0.894540138539811</v>
+        <v>0.8944678082475865</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5390951114510532</v>
+        <v>0.5392072163326626</v>
       </c>
       <c r="F8" t="n">
         <v>1.000143118583401</v>
@@ -616,10 +616,10 @@
         <v>0.5117370892018779</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8352409243466199</v>
+        <v>0.8351733888414671</v>
       </c>
       <c r="E9" t="n">
-        <v>0.798024397829049</v>
+        <v>0.7981903470813047</v>
       </c>
       <c r="F9" t="n">
         <v>0.9997492676027555</v>
@@ -636,10 +636,10 @@
         <v>0.5586854460093896</v>
       </c>
       <c r="D10" t="n">
-        <v>1.011315191101484</v>
+        <v>1.011233418668753</v>
       </c>
       <c r="E10" t="n">
-        <v>1.236081673117893</v>
+        <v>1.236338716423761</v>
       </c>
       <c r="F10" t="n">
         <v>0.9999547386888241</v>
@@ -656,10 +656,10 @@
         <v>0.6056338028169014</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9929648919283667</v>
+        <v>0.9928846032552179</v>
       </c>
       <c r="E11" t="n">
-        <v>1.153436579067845</v>
+        <v>1.153676436318251</v>
       </c>
       <c r="F11" t="n">
         <v>1.000215465124202</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>0.638060484538402</v>
+        <v>0.6380604845384019</v>
       </c>
       <c r="B12" t="n">
         <v>0.8341158059467919</v>
@@ -676,10 +676,10 @@
         <v>0.6494522691705791</v>
       </c>
       <c r="D12" t="n">
-        <v>1.0141291300877</v>
+        <v>1.014047130126858</v>
       </c>
       <c r="E12" t="n">
-        <v>1.289615402322861</v>
+        <v>1.289883577972998</v>
       </c>
       <c r="F12" t="n">
         <v>1.000115469726115</v>
@@ -696,10 +696,10 @@
         <v>0.6275430359937402</v>
       </c>
       <c r="D13" t="n">
-        <v>1.080654691753579</v>
+        <v>1.080567312701169</v>
       </c>
       <c r="E13" t="n">
-        <v>1.381422585887921</v>
+        <v>1.381709852850938</v>
       </c>
       <c r="F13" t="n">
         <v>1.000267396233851</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>0.6503828814202762</v>
+        <v>0.6503828814202761</v>
       </c>
       <c r="B14" t="n">
         <v>0.7370892018779343</v>
@@ -716,10 +716,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="D14" t="n">
-        <v>1.054145147391947</v>
+        <v>1.054059911835405</v>
       </c>
       <c r="E14" t="n">
-        <v>1.327819843485692</v>
+        <v>1.328095963753138</v>
       </c>
       <c r="F14" t="n">
         <v>1.000281575474852</v>
@@ -736,10 +736,10 @@
         <v>0.651017214397496</v>
       </c>
       <c r="D15" t="n">
-        <v>1.003050196576295</v>
+        <v>1.002969092430479</v>
       </c>
       <c r="E15" t="n">
-        <v>1.265573928126954</v>
+        <v>1.26583710435016</v>
       </c>
       <c r="F15" t="n">
         <v>1.000294817474857</v>
@@ -756,10 +756,10 @@
         <v>0.7276995305164319</v>
       </c>
       <c r="D16" t="n">
-        <v>1.107250127023572</v>
+        <v>1.10716059753037</v>
       </c>
       <c r="E16" t="n">
-        <v>1.404076728890684</v>
+        <v>1.404368706784973</v>
       </c>
       <c r="F16" t="n">
         <v>1.000219957422637</v>
@@ -776,10 +776,10 @@
         <v>0.7511737089201878</v>
       </c>
       <c r="D17" t="n">
-        <v>1.093629505434726</v>
+        <v>1.09354107727113</v>
       </c>
       <c r="E17" t="n">
-        <v>1.37833556373215</v>
+        <v>1.378622188748605</v>
       </c>
       <c r="F17" t="n">
         <v>1.000373564859877</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>0.8022805061070414</v>
+        <v>0.8022805061070413</v>
       </c>
       <c r="B18" t="n">
         <v>0.9358372456964006</v>
@@ -796,10 +796,10 @@
         <v>0.8200312989045383</v>
       </c>
       <c r="D18" t="n">
-        <v>1.118201013459901</v>
+        <v>1.118110598505239</v>
       </c>
       <c r="E18" t="n">
-        <v>1.420752073392596</v>
+        <v>1.421047518926419</v>
       </c>
       <c r="F18" t="n">
         <v>1.000347991349584</v>
@@ -816,10 +816,10 @@
         <v>0.8043818466353677</v>
       </c>
       <c r="D19" t="n">
-        <v>1.108205232609639</v>
+        <v>1.108115625888973</v>
       </c>
       <c r="E19" t="n">
-        <v>1.399568578834957</v>
+        <v>1.399859619258997</v>
       </c>
       <c r="F19" t="n">
         <v>1.000331070870131</v>
@@ -836,10 +836,10 @@
         <v>0.8075117370892019</v>
       </c>
       <c r="D20" t="n">
-        <v>1.132876010412307</v>
+        <v>1.132784408873867</v>
       </c>
       <c r="E20" t="n">
-        <v>1.461886459386439</v>
+        <v>1.462190458819888</v>
       </c>
       <c r="F20" t="n">
         <v>1.000343477495547</v>
@@ -856,10 +856,10 @@
         <v>0.9014084507042254</v>
       </c>
       <c r="D21" t="n">
-        <v>1.165843647739057</v>
+        <v>1.165749380519403</v>
       </c>
       <c r="E21" t="n">
-        <v>1.497567635025699</v>
+        <v>1.497879054363141</v>
       </c>
       <c r="F21" t="n">
         <v>1.000377325864875</v>

--- a/crowd_certain/outputs/weight_strength_relation/kr-vs-kp/weight_strength_relation.xlsx
+++ b/crowd_certain/outputs/weight_strength_relation/kr-vs-kp/weight_strength_relation.xlsx
@@ -476,10 +476,10 @@
         <v>0.3881064162754304</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9655210807261927</v>
+        <v>0.9655991566740064</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2064297917551973</v>
+        <v>0.2063868735844748</v>
       </c>
       <c r="F2" t="n">
         <v>0.9993550604285427</v>
@@ -496,10 +496,10 @@
         <v>0.4804381846635368</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9366049738850084</v>
+        <v>0.9366807115592268</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1440265855005717</v>
+        <v>0.14399664138479</v>
       </c>
       <c r="F3" t="n">
         <v>0.9988807521268217</v>
@@ -516,10 +516,10 @@
         <v>0.486697965571205</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9187959164645279</v>
+        <v>0.9172529329668211</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3115733340156809</v>
+        <v>0.3156666930687693</v>
       </c>
       <c r="F4" t="n">
         <v>0.9997584257634172</v>
@@ -536,10 +536,10 @@
         <v>0.4913928012519562</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8183365821947841</v>
+        <v>0.8184027562075125</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4738374626783745</v>
+        <v>0.4737389486172739</v>
       </c>
       <c r="F5" t="n">
         <v>0.9998759421617109</v>
@@ -556,10 +556,10 @@
         <v>0.513302034428795</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8477671060721538</v>
+        <v>0.8478356599563239</v>
       </c>
       <c r="E6" t="n">
-        <v>0.505194905133607</v>
+        <v>0.5050898716449699</v>
       </c>
       <c r="F6" t="n">
         <v>0.9999167846572932</v>
@@ -576,10 +576,10 @@
         <v>0.5273865414710485</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9021099859614118</v>
+        <v>0.9021829342310996</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8020311589313343</v>
+        <v>0.8018644111479299</v>
       </c>
       <c r="F7" t="n">
         <v>0.9991977980907047</v>
@@ -596,10 +596,10 @@
         <v>0.539906103286385</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8944678082475865</v>
+        <v>0.894540138539811</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5392072163326626</v>
+        <v>0.5390951114510532</v>
       </c>
       <c r="F8" t="n">
         <v>1.000143118583401</v>
@@ -616,10 +616,10 @@
         <v>0.5117370892018779</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8351733888414671</v>
+        <v>0.8352409243466199</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7981903470813047</v>
+        <v>0.798024397829049</v>
       </c>
       <c r="F9" t="n">
         <v>0.9997492676027555</v>
@@ -636,10 +636,10 @@
         <v>0.5586854460093896</v>
       </c>
       <c r="D10" t="n">
-        <v>1.011233418668753</v>
+        <v>1.011315191101484</v>
       </c>
       <c r="E10" t="n">
-        <v>1.236338716423761</v>
+        <v>1.236081673117893</v>
       </c>
       <c r="F10" t="n">
         <v>0.9999547386888241</v>
@@ -656,10 +656,10 @@
         <v>0.6056338028169014</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9928846032552179</v>
+        <v>0.9929648919283667</v>
       </c>
       <c r="E11" t="n">
-        <v>1.153676436318251</v>
+        <v>1.153436579067845</v>
       </c>
       <c r="F11" t="n">
         <v>1.000215465124202</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>0.6380604845384019</v>
+        <v>0.638060484538402</v>
       </c>
       <c r="B12" t="n">
         <v>0.8341158059467919</v>
@@ -676,10 +676,10 @@
         <v>0.6494522691705791</v>
       </c>
       <c r="D12" t="n">
-        <v>1.014047130126858</v>
+        <v>1.0141291300877</v>
       </c>
       <c r="E12" t="n">
-        <v>1.289883577972998</v>
+        <v>1.289615402322861</v>
       </c>
       <c r="F12" t="n">
         <v>1.000115469726115</v>
@@ -696,10 +696,10 @@
         <v>0.6275430359937402</v>
       </c>
       <c r="D13" t="n">
-        <v>1.080567312701169</v>
+        <v>1.080654691753579</v>
       </c>
       <c r="E13" t="n">
-        <v>1.381709852850938</v>
+        <v>1.381422585887921</v>
       </c>
       <c r="F13" t="n">
         <v>1.000267396233851</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>0.6503828814202761</v>
+        <v>0.6503828814202762</v>
       </c>
       <c r="B14" t="n">
         <v>0.7370892018779343</v>
@@ -716,10 +716,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="D14" t="n">
-        <v>1.054059911835405</v>
+        <v>1.054145147391947</v>
       </c>
       <c r="E14" t="n">
-        <v>1.328095963753138</v>
+        <v>1.327819843485692</v>
       </c>
       <c r="F14" t="n">
         <v>1.000281575474852</v>
@@ -736,10 +736,10 @@
         <v>0.651017214397496</v>
       </c>
       <c r="D15" t="n">
-        <v>1.002969092430479</v>
+        <v>1.003050196576295</v>
       </c>
       <c r="E15" t="n">
-        <v>1.26583710435016</v>
+        <v>1.265573928126954</v>
       </c>
       <c r="F15" t="n">
         <v>1.000294817474857</v>
@@ -756,10 +756,10 @@
         <v>0.7276995305164319</v>
       </c>
       <c r="D16" t="n">
-        <v>1.10716059753037</v>
+        <v>1.107250127023572</v>
       </c>
       <c r="E16" t="n">
-        <v>1.404368706784973</v>
+        <v>1.404076728890684</v>
       </c>
       <c r="F16" t="n">
         <v>1.000219957422637</v>
@@ -776,10 +776,10 @@
         <v>0.7511737089201878</v>
       </c>
       <c r="D17" t="n">
-        <v>1.09354107727113</v>
+        <v>1.093629505434726</v>
       </c>
       <c r="E17" t="n">
-        <v>1.378622188748605</v>
+        <v>1.37833556373215</v>
       </c>
       <c r="F17" t="n">
         <v>1.000373564859877</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>0.8022805061070413</v>
+        <v>0.8022805061070414</v>
       </c>
       <c r="B18" t="n">
         <v>0.9358372456964006</v>
@@ -796,10 +796,10 @@
         <v>0.8200312989045383</v>
       </c>
       <c r="D18" t="n">
-        <v>1.118110598505239</v>
+        <v>1.118201013459901</v>
       </c>
       <c r="E18" t="n">
-        <v>1.421047518926419</v>
+        <v>1.420752073392596</v>
       </c>
       <c r="F18" t="n">
         <v>1.000347991349584</v>
@@ -816,10 +816,10 @@
         <v>0.8043818466353677</v>
       </c>
       <c r="D19" t="n">
-        <v>1.108115625888973</v>
+        <v>1.108205232609639</v>
       </c>
       <c r="E19" t="n">
-        <v>1.399859619258997</v>
+        <v>1.399568578834957</v>
       </c>
       <c r="F19" t="n">
         <v>1.000331070870131</v>
@@ -836,10 +836,10 @@
         <v>0.8075117370892019</v>
       </c>
       <c r="D20" t="n">
-        <v>1.132784408873867</v>
+        <v>1.132876010412307</v>
       </c>
       <c r="E20" t="n">
-        <v>1.462190458819888</v>
+        <v>1.461886459386439</v>
       </c>
       <c r="F20" t="n">
         <v>1.000343477495547</v>
@@ -856,10 +856,10 @@
         <v>0.9014084507042254</v>
       </c>
       <c r="D21" t="n">
-        <v>1.165749380519403</v>
+        <v>1.165843647739057</v>
       </c>
       <c r="E21" t="n">
-        <v>1.497879054363141</v>
+        <v>1.497567635025699</v>
       </c>
       <c r="F21" t="n">
         <v>1.000377325864875</v>

--- a/crowd_certain/outputs/weight_strength_relation/kr-vs-kp/weight_strength_relation.xlsx
+++ b/crowd_certain/outputs/weight_strength_relation/kr-vs-kp/weight_strength_relation.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>proposed_penalized</t>
+          <t>Crowd-Certain</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">

--- a/crowd_certain/outputs/weight_strength_relation/kr-vs-kp/weight_strength_relation.xlsx
+++ b/crowd_certain/outputs/weight_strength_relation/kr-vs-kp/weight_strength_relation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>labelers_strength</t>
+          <t>workers_strength</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -449,420 +449,115 @@
           <t>accuracy-test</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>proposed</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Crowd-Certain</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Tao</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0.400068624890407</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2472613458528951</v>
+        <v>0.2081377151799687</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3881064162754304</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.9655210807261927</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.2064297917551973</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.9993550604285427</v>
+        <v>0.3912363067292645</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>0.4164325559187557</v>
+        <v>0.4554031568612787</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2253521126760563</v>
+        <v>0.4694835680751174</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4804381846635368</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.9366049738850084</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.1440265855005717</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.9988807521268217</v>
+        <v>0.486697965571205</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>0.4554031568612787</v>
+        <v>0.4880535344902678</v>
       </c>
       <c r="B4" t="n">
-        <v>0.378716744913928</v>
+        <v>0.4366197183098591</v>
       </c>
       <c r="C4" t="n">
-        <v>0.486697965571205</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.9187959164645279</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.3115733340156809</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.9997584257634172</v>
+        <v>0.513302034428795</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>0.4842321631571403</v>
+        <v>0.5117561268266025</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4272300469483568</v>
+        <v>0.5586854460093896</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4913928012519562</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.8183365821947841</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.4738374626783745</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.9998759421617109</v>
+        <v>0.5336463223787168</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>0.4880535344902678</v>
+        <v>0.5813995435791038</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4741784037558686</v>
+        <v>0.809076682316119</v>
       </c>
       <c r="C6" t="n">
-        <v>0.513302034428795</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.8477671060721538</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.505194905133607</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.9999167846572932</v>
+        <v>0.5602503912363067</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>0.5117561268266025</v>
+        <v>0.6073364362258287</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5508607198748043</v>
+        <v>0.7996870109546166</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5273865414710485</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.9021099859614118</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.8020311589313343</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.9991977980907047</v>
+        <v>0.6071987480438185</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>0.5188608934509273</v>
+        <v>0.6380604845384019</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5195618153364632</v>
+        <v>0.8153364632237872</v>
       </c>
       <c r="C8" t="n">
-        <v>0.539906103286385</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.8944678082475865</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.5392072163326626</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.000143118583401</v>
+        <v>0.6494522691705791</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>0.5226713498389105</v>
+        <v>0.6502132028215444</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6338028169014085</v>
+        <v>0.7871674491392802</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5117370892018779</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.8351733888414671</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.7981903470813047</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.9997492676027555</v>
+        <v>0.6244131455399061</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>0.5813995435791038</v>
+        <v>0.7232900404020142</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8215962441314554</v>
+        <v>0.8685446009389671</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5586854460093896</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.011233418668753</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1.236338716423761</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.9999547386888241</v>
+        <v>0.7230046948356808</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>0.6073364362258287</v>
+        <v>0.8321946960652948</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6071987480438185</v>
+        <v>0.8716744913928013</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6056338028169014</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.9928846032552179</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1.153676436318251</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.000215465124202</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>0.6380604845384019</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.8341158059467919</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6494522691705791</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1.014047130126858</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1.289883577972998</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1.000115469726115</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>0.6502132028215444</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.8810641627543035</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6275430359937402</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1.080567312701169</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1.381709852850938</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1.000267396233851</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>0.6503828814202761</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.7370892018779343</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1.054059911835405</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1.328095963753138</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1.000281575474852</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>0.6515167086419769</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.812206572769953</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.651017214397496</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1.002969092430479</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1.26583710435016</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1.000294817474857</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>0.7232900404020142</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.7605633802816901</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.7276995305164319</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1.10716059753037</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1.404368706784973</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1.000219957422637</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>0.735213897067451</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.8497652582159625</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.7511737089201878</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.09354107727113</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1.378622188748605</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1.000373564859877</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>0.8022805061070413</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.9358372456964006</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.8200312989045383</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1.118110598505239</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1.421047518926419</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1.000347991349584</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>0.8111317002380557</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0.8528951486697965</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.8043818466353677</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1.108115625888973</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1.399859619258997</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1.000331070870131</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>0.8321946960652948</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.9420970266040689</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.8075117370892019</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1.132784408873867</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1.462190458819888</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1.000343477495547</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>0.9268704618345672</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0.86697965571205</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.9014084507042254</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1.165749380519403</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1.497879054363141</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1.000377325864875</v>
+        <v>0.8153364632237872</v>
       </c>
     </row>
   </sheetData>
